--- a/sheets/security.xlsx
+++ b/sheets/security.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="secuity-cameras" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="padlocks" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="security-lights" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="torches" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -154,6 +155,25 @@
   </si>
   <si>
     <t xml:space="preserve">https://kaukaban.com/product/yale-15-0110-4014-00-0201-110-series-brass-padlock-40mm-card/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torch REEVES-FORLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lumens: 80
+LED colour: white
+Battery: included
+Loop
+This economical practical COB LED torch with particularly bright light is especially suitable for handbags, the home and the glove box. (80 lumen, 1 watt).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.reflects.com/sw6/media/11/b8/50/1631769128/52191-1631754137.jpg?width=3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.reflects.com/sw6/media/a3/5b/07/1631769128/52191-2-b1-1631754138.jpg?width=3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.reflects.com/en/torch-reeves-forli</t>
   </si>
 </sst>
 </file>
@@ -272,10 +292,10 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -426,11 +446,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -455,7 +475,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>3618</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
@@ -475,7 +498,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>2850</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
@@ -492,7 +518,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3623</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -509,7 +538,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>3626</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -517,7 +549,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>700000</v>
+        <v>70000</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>33</v>
@@ -548,7 +580,54 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -574,6 +653,26 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4909</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/security.xlsx
+++ b/sheets/security.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="secuity-cameras" sheetId="1" state="visible" r:id="rId2"/>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">address</t>
   </si>
   <si>
-    <t xml:space="preserve">RING Spotlight Ca</t>
+    <t xml:space="preserve">RING Wireless Surveillance Camera: Box, Indoor/Outdoor, Black, 1920 x 1080, 1080p</t>
   </si>
   <si>
     <t xml:space="preserve">Your new Spotlight Cam lets
@@ -291,11 +291,11 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -321,7 +321,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="n">
+        <v>5312</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -342,6 +344,9 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>5315</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
@@ -450,7 +455,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -583,7 +588,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -626,11 +631,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/sheets/security.xlsx
+++ b/sheets/security.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="secuity-cameras" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="padlocks" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="security-lights" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="torches" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="other" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -174,6 +175,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.reflects.com/en/torch-reeves-forli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under Vehicle Inspection Mirror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear live video of the vehicle’s underside in high resolution are inspected for any hidden explosive devices, foreign and suspicious objects etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://productimages.hepsiburada.net/s/18/500/9787383480370.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://securelinegroup.com/wp-content/uploads/2020/05/No.18.jpg</t>
   </si>
 </sst>
 </file>
@@ -291,11 +304,11 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -455,7 +468,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -588,7 +601,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -632,10 +645,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -678,6 +691,70 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>5504</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
